--- a/AAAGameData/DataTables/UITable.xlsx
+++ b/AAAGameData/DataTables/UITable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\GF_HybridCLR\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityProjects\UGF\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727DB66B-71B9-4745-B8BE-EAD7F2A7E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27540" windowHeight="17070"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -80,12 +81,6 @@
     <t>Dialog</t>
   </si>
   <si>
-    <t>StarRateDialog</t>
-  </si>
-  <si>
-    <t>TipsDialog</t>
-  </si>
-  <si>
     <t>CommonDialog</t>
   </si>
   <si>
@@ -99,9 +94,6 @@
   </si>
   <si>
     <t>MenuUIForm</t>
-  </si>
-  <si>
-    <t>ShopUIForm</t>
   </si>
   <si>
     <t>FadeIn</t>
@@ -114,17 +106,39 @@
     <t>None</t>
   </si>
   <si>
+    <t>FadeOut</t>
+  </si>
+  <si>
+    <t>返回键触发关闭界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同组被覆盖是否暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LanguagesDialog</t>
+  </si>
+  <si>
     <t>Custom,None,FadeIn,FadeOut,ScaleIn,ScaleOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FadeOut</t>
+    <t>RatingDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TermsOfServiceDialog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,9 +243,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,17 +488,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,11 +576,20 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -591,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -617,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -628,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -640,13 +664,13 @@
         <v>18</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
         <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -654,10 +678,10 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -666,13 +690,13 @@
         <v>18</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -683,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -695,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
         <v>27</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -709,22 +733,22 @@
         <v>999</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -735,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -747,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
         <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -761,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -773,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -784,25 +808,25 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -826,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
